--- a/app/controllers/admin/divisionBatches/sampleForImportDivisionBatches.xlsx
+++ b/app/controllers/admin/divisionBatches/sampleForImportDivisionBatches.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>courseId</t>
   </si>
@@ -23,9 +23,6 @@
   </si>
   <si>
     <t>maxSeats</t>
-  </si>
-  <si>
-    <t>inputBatchCount</t>
   </si>
 </sst>
 </file>
@@ -81,7 +78,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -91,10 +88,9 @@
     <col min="2" max="2" width="10" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -107,9 +103,6 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
